--- a/Data/Vinmonopolet/final_data_18.xlsx
+++ b/Data/Vinmonopolet/final_data_18.xlsx
@@ -12037,7 +12037,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>FAUSKE</t>
+          <t>Fauske - Fuossko</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -12973,7 +12973,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>SORTLAND</t>
+          <t>Sortland - Suortá</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -19210,7 +19210,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>HARSTAD</t>
+          <t>Harstad - Hárstták</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
@@ -19990,7 +19990,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>BJUGN</t>
+          <t>Bjugn</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>ØRLAND</t>
+          <t>Ørland</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
@@ -20146,7 +20146,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>SKAUN</t>
+          <t>Skaun</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -20224,7 +20224,7 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>FROSTA</t>
+          <t>Frosta</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
@@ -20302,7 +20302,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>FRØYA</t>
+          <t>Frøya</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -20380,7 +20380,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>GRONG</t>
+          <t>Grong</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
@@ -20458,7 +20458,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>HITRA</t>
+          <t>Hitra</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>INDERØY</t>
+          <t>Inderøy</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
@@ -20614,7 +20614,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>NÆRØY</t>
+          <t>Nærøy</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
@@ -20692,7 +20692,7 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>HEMNE</t>
+          <t>Hemne</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
@@ -20770,7 +20770,7 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>LEVANGER</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
@@ -20848,7 +20848,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>MALVIK</t>
+          <t>Malvik</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
@@ -20926,7 +20926,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>MELHUS</t>
+          <t>Melhus</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
@@ -21004,7 +21004,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>NAMSOS</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
@@ -21082,7 +21082,7 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>OPPDAL</t>
+          <t>Oppdal</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>ORKDAL</t>
+          <t>Orkdal</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
@@ -21238,7 +21238,7 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>RISSA</t>
+          <t>Indre Fosen</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
@@ -21316,7 +21316,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>RØROS</t>
+          <t>Røros</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>VIKNA</t>
+          <t>Vikna</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
@@ -21472,7 +21472,7 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>SELBU</t>
+          <t>Selbu</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
@@ -21550,7 +21550,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>STEINKJER</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
@@ -21628,7 +21628,7 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>STJØRDAL</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
@@ -21706,7 +21706,7 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>MIDTRE GAULDAL</t>
+          <t>Midtre Gauldal</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>TRONDHEIM</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
@@ -21862,7 +21862,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>TRONDHEIM</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
@@ -21940,7 +21940,7 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>TRONDHEIM</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
@@ -22018,7 +22018,7 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>TRONDHEIM</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
@@ -22096,7 +22096,7 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>TRONDHEIM</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
@@ -22174,7 +22174,7 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>TRONDHEIM</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>TRONDHEIM</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
@@ -22330,7 +22330,7 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>TRONDHEIM</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>TRONDHEIM</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
@@ -22486,7 +22486,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>VERDAL</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
@@ -22564,7 +22564,7 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>ÅFJORD</t>
+          <t>Åfjord</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
@@ -22637,12 +22637,12 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>0719</t>
+          <t>0710</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>ANDEBU</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>HOLMESTRAND</t>
+          <t>Holmestrand</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>LARVIK</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
@@ -22954,7 +22954,7 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>NØTTERØY</t>
+          <t>Færder</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
@@ -23183,12 +23183,12 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>0706</t>
+          <t>0710</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>SANDEFJORD</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
@@ -23266,7 +23266,7 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>LARVIK</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
@@ -23339,12 +23339,12 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>0720</t>
+          <t>0710</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>STOKKE</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>TJØME</t>
+          <t>Færder</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
